--- a/data/trans_camb/P20_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-2,47</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 4,72</t>
+          <t>-5,11; 6,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -0,26</t>
+          <t>-9,42; -0,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 0,84</t>
+          <t>-5,81; 1,4</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,31%</t>
+          <t>-14,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>-9,58%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 26,99</t>
+          <t>-23,12; 33,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,3; -1,02</t>
+          <t>-28,47; -0,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 3,29</t>
+          <t>-21,44; 5,89</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,95</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 6,67</t>
+          <t>-7,19; 4,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 2,35</t>
+          <t>-7,84; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,67</t>
+          <t>-6,01; 2,47</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,28%</t>
+          <t>-9,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,96%</t>
+          <t>-6,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>-7,92%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 42,66</t>
+          <t>-33,47; 28,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 8,94</t>
+          <t>-24,0; 14,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 11,79</t>
+          <t>-22,78; 10,56</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-3,12</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 2,82</t>
+          <t>-14,14; 3,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 7,73</t>
+          <t>-11,23; 8,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 3,04</t>
+          <t>-9,87; 3,96</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,69%</t>
+          <t>-31,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-18,43%</t>
+          <t>-14,57%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,55; 26,05</t>
+          <t>-63,89; 33,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 38,69</t>
+          <t>-35,99; 42,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 15,9</t>
+          <t>-41,16; 21,51</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,33</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 2,4</t>
+          <t>-4,79; 2,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,05; -0,51</t>
+          <t>-6,46; 0,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,06</t>
+          <t>-4,71; 0,2</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,34%</t>
+          <t>-9,41%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 13,87</t>
+          <t>-22,92; 12,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,26; -1,53</t>
+          <t>-20,57; 0,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 0,24</t>
+          <t>-18,17; 0,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,59</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,47</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.7950973046079696</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.553525957965615</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.770182996223697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 6,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,42; -0,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 1,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.978192904311152</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.39652551946304</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.431836390603543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,67%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-14,84%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-9,58%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.833328476422541</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.1647282463242447</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.9641180596408802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-23,12; 33,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-28,47; -0,23</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,44; 5,89</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.03932681089615073</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1467120534274391</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1070757651130955</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2672753216495394</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2841095637741952</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2345623588557526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 4,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; 3,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 2,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2773696827478747</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.005584068285824007</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.03946822014004111</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-9,8%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-6,65%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-7,92%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.438282898599577</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.83609375861929</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.162443959388799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-33,47; 28,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-24,0; 14,68</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-22,78; 10,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.953110021076952</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.089621016526582</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.165361243666649</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.040290956418342</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.340224830278602</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.000547211095483</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,14; 3,6</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,23; 8,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,87; 3,96</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.07599597637945073</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.09350911073006633</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.08765057156584476</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-31,06%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,89%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-14,57%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.330218510563715</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.271448027702728</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2298761394781749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-63,89; 33,54</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-35,99; 42,71</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-41,16; 21,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.310705536557881</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.08996605227905093</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.09222238261333834</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-3,15</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-6.182602205392176</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.297518332554832</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-4.267887335620816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 2,28</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 0,14</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 0,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.50518847098279</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.22260870440501</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.98332003043611</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-7,52%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-10,48%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-9,41%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2.31987595489484</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.578544258568291</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.462717751959935</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-22,92; 12,79</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-20,57; 0,51</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-18,17; 0,92</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.3584165097550092</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.08962635950826067</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1995529154491004</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.6704860652428245</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3967143806118118</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4479840548704123</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.243585563398763</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.3614989247516947</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1264956168801978</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.684527977231268</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-3.622672414048</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.688956918841692</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.191525856303945</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.924898851518148</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.313137653929517</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.231457966328853</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.1560084813919645</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.1326570172453012</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.08713405302769181</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1201795370015957</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.108144968750323</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2439280354154561</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2201777250698911</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2039870455721752</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1259890871059049</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.005779462831530434</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.005489705141507491</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
